--- a/excel/Timesheet_Template.xlsx
+++ b/excel/Timesheet_Template.xlsx
@@ -698,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -864,6 +864,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,11 +1156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA1012"/>
+  <dimension ref="B1:AA1048"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="6" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1266,781 +1278,780 @@
     </row>
     <row r="7" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="35"/>
     </row>
     <row r="8" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="11"/>
     </row>
     <row r="40" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="26"/>
-      <c r="C50" s="10" t="s">
+    <row r="50" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="11"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="11"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="11"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="11"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="11"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="11"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="11"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="11"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="11"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="11"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="60"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="60"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="60"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="60"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="60"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="60"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="60"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="60"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="60"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="2:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="60"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="60"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="60"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="60"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="26"/>
+      <c r="C86" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="55" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="56"/>
-    </row>
-    <row r="51" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="33" t="s">
+      <c r="H86" s="56"/>
+    </row>
+    <row r="87" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="20" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="33" t="s">
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="20" t="s">
+      <c r="C88" s="9"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="34" t="s">
+      <c r="H88" s="28"/>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="21" t="s">
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="29"/>
-    </row>
-    <row r="54" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="22" t="s">
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="40"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="30">
-        <f>SUM(H53,H52,H51)</f>
+      <c r="H90" s="30">
+        <f>SUM(H89,H88,H87)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="2"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="2"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
@@ -2048,7 +2059,7 @@
       <c r="D91" s="2"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="5"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2096,7 +2107,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="2"/>
@@ -2105,7 +2116,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="2"/>
@@ -2114,7 +2125,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="2"/>
@@ -2123,7 +2134,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="2"/>
@@ -2132,7 +2143,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="2"/>
@@ -2141,7 +2152,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="2"/>
@@ -2150,7 +2161,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="2"/>
@@ -2159,7 +2170,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="2"/>
@@ -2168,7 +2179,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="2"/>
@@ -2177,7 +2188,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="2"/>
@@ -2186,7 +2197,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="2"/>
@@ -2195,7 +2206,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="2"/>
@@ -2203,8 +2214,9 @@
       <c r="F108" s="4"/>
       <c r="G108" s="5"/>
       <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="2"/>
@@ -2213,7 +2225,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="2"/>
@@ -2222,7 +2234,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="2"/>
@@ -2231,7 +2243,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="2"/>
@@ -2456,7 +2468,7 @@
       <c r="G136" s="5"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="2"/>
@@ -2465,7 +2477,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="2"/>
@@ -2474,7 +2486,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="2"/>
@@ -2483,7 +2495,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="2"/>
@@ -2492,7 +2504,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="2"/>
@@ -2501,7 +2513,7 @@
       <c r="G141" s="5"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="2"/>
@@ -3520,7 +3532,7 @@
     </row>
     <row r="255" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="2"/>
-      <c r="C255" s="6"/>
+      <c r="C255" s="3"/>
       <c r="D255" s="2"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
@@ -3529,7 +3541,7 @@
     </row>
     <row r="256" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="2"/>
-      <c r="C256" s="6"/>
+      <c r="C256" s="3"/>
       <c r="D256" s="2"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
@@ -3538,7 +3550,7 @@
     </row>
     <row r="257" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="2"/>
-      <c r="C257" s="6"/>
+      <c r="C257" s="3"/>
       <c r="D257" s="2"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
@@ -3547,7 +3559,7 @@
     </row>
     <row r="258" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="2"/>
-      <c r="C258" s="6"/>
+      <c r="C258" s="3"/>
       <c r="D258" s="2"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
@@ -3556,7 +3568,7 @@
     </row>
     <row r="259" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="2"/>
-      <c r="C259" s="6"/>
+      <c r="C259" s="3"/>
       <c r="D259" s="2"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -3565,7 +3577,7 @@
     </row>
     <row r="260" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="2"/>
-      <c r="C260" s="6"/>
+      <c r="C260" s="3"/>
       <c r="D260" s="2"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -3574,7 +3586,7 @@
     </row>
     <row r="261" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="2"/>
-      <c r="C261" s="6"/>
+      <c r="C261" s="3"/>
       <c r="D261" s="2"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -3583,7 +3595,7 @@
     </row>
     <row r="262" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="2"/>
-      <c r="C262" s="6"/>
+      <c r="C262" s="3"/>
       <c r="D262" s="2"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
@@ -3592,7 +3604,7 @@
     </row>
     <row r="263" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="2"/>
-      <c r="C263" s="6"/>
+      <c r="C263" s="3"/>
       <c r="D263" s="2"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
@@ -3601,7 +3613,7 @@
     </row>
     <row r="264" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="2"/>
-      <c r="C264" s="6"/>
+      <c r="C264" s="3"/>
       <c r="D264" s="2"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
@@ -3610,7 +3622,7 @@
     </row>
     <row r="265" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="2"/>
-      <c r="C265" s="6"/>
+      <c r="C265" s="3"/>
       <c r="D265" s="2"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
@@ -3619,7 +3631,7 @@
     </row>
     <row r="266" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="2"/>
-      <c r="C266" s="6"/>
+      <c r="C266" s="3"/>
       <c r="D266" s="2"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
@@ -3628,7 +3640,7 @@
     </row>
     <row r="267" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="2"/>
-      <c r="C267" s="6"/>
+      <c r="C267" s="3"/>
       <c r="D267" s="2"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -3637,7 +3649,7 @@
     </row>
     <row r="268" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="2"/>
-      <c r="C268" s="6"/>
+      <c r="C268" s="3"/>
       <c r="D268" s="2"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
@@ -3646,7 +3658,7 @@
     </row>
     <row r="269" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="2"/>
-      <c r="C269" s="6"/>
+      <c r="C269" s="3"/>
       <c r="D269" s="2"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
@@ -3655,7 +3667,7 @@
     </row>
     <row r="270" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="2"/>
-      <c r="C270" s="6"/>
+      <c r="C270" s="3"/>
       <c r="D270" s="2"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
@@ -3664,7 +3676,7 @@
     </row>
     <row r="271" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="2"/>
-      <c r="C271" s="6"/>
+      <c r="C271" s="3"/>
       <c r="D271" s="2"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
@@ -3673,7 +3685,7 @@
     </row>
     <row r="272" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="2"/>
-      <c r="C272" s="6"/>
+      <c r="C272" s="3"/>
       <c r="D272" s="2"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
@@ -3682,7 +3694,7 @@
     </row>
     <row r="273" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="2"/>
-      <c r="C273" s="6"/>
+      <c r="C273" s="3"/>
       <c r="D273" s="2"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
@@ -3691,7 +3703,7 @@
     </row>
     <row r="274" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="2"/>
-      <c r="C274" s="6"/>
+      <c r="C274" s="3"/>
       <c r="D274" s="2"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
@@ -3700,7 +3712,7 @@
     </row>
     <row r="275" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="2"/>
-      <c r="C275" s="6"/>
+      <c r="C275" s="3"/>
       <c r="D275" s="2"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
@@ -3709,7 +3721,7 @@
     </row>
     <row r="276" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="2"/>
-      <c r="C276" s="6"/>
+      <c r="C276" s="3"/>
       <c r="D276" s="2"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
@@ -3718,7 +3730,7 @@
     </row>
     <row r="277" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="2"/>
-      <c r="C277" s="6"/>
+      <c r="C277" s="3"/>
       <c r="D277" s="2"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
@@ -3727,7 +3739,7 @@
     </row>
     <row r="278" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="2"/>
-      <c r="C278" s="6"/>
+      <c r="C278" s="3"/>
       <c r="D278" s="2"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
@@ -3736,7 +3748,7 @@
     </row>
     <row r="279" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="2"/>
-      <c r="C279" s="6"/>
+      <c r="C279" s="3"/>
       <c r="D279" s="2"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
@@ -3745,7 +3757,7 @@
     </row>
     <row r="280" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="2"/>
-      <c r="C280" s="6"/>
+      <c r="C280" s="3"/>
       <c r="D280" s="2"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
@@ -3754,7 +3766,7 @@
     </row>
     <row r="281" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="2"/>
-      <c r="C281" s="6"/>
+      <c r="C281" s="3"/>
       <c r="D281" s="2"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
@@ -3763,7 +3775,7 @@
     </row>
     <row r="282" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="2"/>
-      <c r="C282" s="6"/>
+      <c r="C282" s="3"/>
       <c r="D282" s="2"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
@@ -3772,7 +3784,7 @@
     </row>
     <row r="283" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="2"/>
-      <c r="C283" s="6"/>
+      <c r="C283" s="3"/>
       <c r="D283" s="2"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
@@ -3781,7 +3793,7 @@
     </row>
     <row r="284" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="2"/>
-      <c r="C284" s="6"/>
+      <c r="C284" s="3"/>
       <c r="D284" s="2"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
@@ -3790,7 +3802,7 @@
     </row>
     <row r="285" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="2"/>
-      <c r="C285" s="6"/>
+      <c r="C285" s="3"/>
       <c r="D285" s="2"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
@@ -3799,7 +3811,7 @@
     </row>
     <row r="286" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="2"/>
-      <c r="C286" s="6"/>
+      <c r="C286" s="3"/>
       <c r="D286" s="2"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
@@ -3808,7 +3820,7 @@
     </row>
     <row r="287" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="2"/>
-      <c r="C287" s="6"/>
+      <c r="C287" s="3"/>
       <c r="D287" s="2"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
@@ -3817,7 +3829,7 @@
     </row>
     <row r="288" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="2"/>
-      <c r="C288" s="6"/>
+      <c r="C288" s="3"/>
       <c r="D288" s="2"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
@@ -3826,7 +3838,7 @@
     </row>
     <row r="289" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="2"/>
-      <c r="C289" s="6"/>
+      <c r="C289" s="3"/>
       <c r="D289" s="2"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
@@ -3835,7 +3847,7 @@
     </row>
     <row r="290" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="2"/>
-      <c r="C290" s="6"/>
+      <c r="C290" s="3"/>
       <c r="D290" s="2"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
@@ -10340,16 +10352,340 @@
       <c r="G1012" s="5"/>
       <c r="H1012" s="2"/>
     </row>
+    <row r="1013" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="6"/>
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="4"/>
+      <c r="F1013" s="4"/>
+      <c r="G1013" s="5"/>
+      <c r="H1013" s="2"/>
+    </row>
+    <row r="1014" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="6"/>
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="4"/>
+      <c r="F1014" s="4"/>
+      <c r="G1014" s="5"/>
+      <c r="H1014" s="2"/>
+    </row>
+    <row r="1015" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="6"/>
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="4"/>
+      <c r="F1015" s="4"/>
+      <c r="G1015" s="5"/>
+      <c r="H1015" s="2"/>
+    </row>
+    <row r="1016" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="6"/>
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="4"/>
+      <c r="F1016" s="4"/>
+      <c r="G1016" s="5"/>
+      <c r="H1016" s="2"/>
+    </row>
+    <row r="1017" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="6"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="4"/>
+      <c r="F1017" s="4"/>
+      <c r="G1017" s="5"/>
+      <c r="H1017" s="2"/>
+    </row>
+    <row r="1018" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="6"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="4"/>
+      <c r="F1018" s="4"/>
+      <c r="G1018" s="5"/>
+      <c r="H1018" s="2"/>
+    </row>
+    <row r="1019" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="6"/>
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="4"/>
+      <c r="F1019" s="4"/>
+      <c r="G1019" s="5"/>
+      <c r="H1019" s="2"/>
+    </row>
+    <row r="1020" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="6"/>
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="4"/>
+      <c r="F1020" s="4"/>
+      <c r="G1020" s="5"/>
+      <c r="H1020" s="2"/>
+    </row>
+    <row r="1021" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="6"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="4"/>
+      <c r="F1021" s="4"/>
+      <c r="G1021" s="5"/>
+      <c r="H1021" s="2"/>
+    </row>
+    <row r="1022" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="6"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="4"/>
+      <c r="F1022" s="4"/>
+      <c r="G1022" s="5"/>
+      <c r="H1022" s="2"/>
+    </row>
+    <row r="1023" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="6"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="4"/>
+      <c r="F1023" s="4"/>
+      <c r="G1023" s="5"/>
+      <c r="H1023" s="2"/>
+    </row>
+    <row r="1024" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="6"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="4"/>
+      <c r="F1024" s="4"/>
+      <c r="G1024" s="5"/>
+      <c r="H1024" s="2"/>
+    </row>
+    <row r="1025" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="6"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="4"/>
+      <c r="F1025" s="4"/>
+      <c r="G1025" s="5"/>
+      <c r="H1025" s="2"/>
+    </row>
+    <row r="1026" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="6"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="4"/>
+      <c r="F1026" s="4"/>
+      <c r="G1026" s="5"/>
+      <c r="H1026" s="2"/>
+    </row>
+    <row r="1027" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="6"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="4"/>
+      <c r="F1027" s="4"/>
+      <c r="G1027" s="5"/>
+      <c r="H1027" s="2"/>
+    </row>
+    <row r="1028" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="6"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="4"/>
+      <c r="F1028" s="4"/>
+      <c r="G1028" s="5"/>
+      <c r="H1028" s="2"/>
+    </row>
+    <row r="1029" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="6"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="4"/>
+      <c r="F1029" s="4"/>
+      <c r="G1029" s="5"/>
+      <c r="H1029" s="2"/>
+    </row>
+    <row r="1030" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="6"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="4"/>
+      <c r="F1030" s="4"/>
+      <c r="G1030" s="5"/>
+      <c r="H1030" s="2"/>
+    </row>
+    <row r="1031" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="6"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="4"/>
+      <c r="F1031" s="4"/>
+      <c r="G1031" s="5"/>
+      <c r="H1031" s="2"/>
+    </row>
+    <row r="1032" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1032" s="2"/>
+      <c r="C1032" s="6"/>
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="4"/>
+      <c r="F1032" s="4"/>
+      <c r="G1032" s="5"/>
+      <c r="H1032" s="2"/>
+    </row>
+    <row r="1033" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1033" s="2"/>
+      <c r="C1033" s="6"/>
+      <c r="D1033" s="2"/>
+      <c r="E1033" s="4"/>
+      <c r="F1033" s="4"/>
+      <c r="G1033" s="5"/>
+      <c r="H1033" s="2"/>
+    </row>
+    <row r="1034" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1034" s="2"/>
+      <c r="C1034" s="6"/>
+      <c r="D1034" s="2"/>
+      <c r="E1034" s="4"/>
+      <c r="F1034" s="4"/>
+      <c r="G1034" s="5"/>
+      <c r="H1034" s="2"/>
+    </row>
+    <row r="1035" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="6"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="4"/>
+      <c r="F1035" s="4"/>
+      <c r="G1035" s="5"/>
+      <c r="H1035" s="2"/>
+    </row>
+    <row r="1036" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1036" s="2"/>
+      <c r="C1036" s="6"/>
+      <c r="D1036" s="2"/>
+      <c r="E1036" s="4"/>
+      <c r="F1036" s="4"/>
+      <c r="G1036" s="5"/>
+      <c r="H1036" s="2"/>
+    </row>
+    <row r="1037" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1037" s="2"/>
+      <c r="C1037" s="6"/>
+      <c r="D1037" s="2"/>
+      <c r="E1037" s="4"/>
+      <c r="F1037" s="4"/>
+      <c r="G1037" s="5"/>
+      <c r="H1037" s="2"/>
+    </row>
+    <row r="1038" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1038" s="2"/>
+      <c r="C1038" s="6"/>
+      <c r="D1038" s="2"/>
+      <c r="E1038" s="4"/>
+      <c r="F1038" s="4"/>
+      <c r="G1038" s="5"/>
+      <c r="H1038" s="2"/>
+    </row>
+    <row r="1039" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="6"/>
+      <c r="D1039" s="2"/>
+      <c r="E1039" s="4"/>
+      <c r="F1039" s="4"/>
+      <c r="G1039" s="5"/>
+      <c r="H1039" s="2"/>
+    </row>
+    <row r="1040" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="6"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" s="4"/>
+      <c r="F1040" s="4"/>
+      <c r="G1040" s="5"/>
+      <c r="H1040" s="2"/>
+    </row>
+    <row r="1041" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1041" s="2"/>
+      <c r="C1041" s="6"/>
+      <c r="D1041" s="2"/>
+      <c r="E1041" s="4"/>
+      <c r="F1041" s="4"/>
+      <c r="G1041" s="5"/>
+      <c r="H1041" s="2"/>
+    </row>
+    <row r="1042" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1042" s="2"/>
+      <c r="C1042" s="6"/>
+      <c r="D1042" s="2"/>
+      <c r="E1042" s="4"/>
+      <c r="F1042" s="4"/>
+      <c r="G1042" s="5"/>
+      <c r="H1042" s="2"/>
+    </row>
+    <row r="1043" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1043" s="2"/>
+      <c r="C1043" s="6"/>
+      <c r="D1043" s="2"/>
+      <c r="E1043" s="4"/>
+      <c r="F1043" s="4"/>
+      <c r="G1043" s="5"/>
+      <c r="H1043" s="2"/>
+    </row>
+    <row r="1044" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1044" s="2"/>
+      <c r="C1044" s="6"/>
+      <c r="D1044" s="2"/>
+      <c r="E1044" s="4"/>
+      <c r="F1044" s="4"/>
+      <c r="G1044" s="5"/>
+      <c r="H1044" s="2"/>
+    </row>
+    <row r="1045" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1045" s="2"/>
+      <c r="C1045" s="6"/>
+      <c r="D1045" s="2"/>
+      <c r="E1045" s="4"/>
+      <c r="F1045" s="4"/>
+      <c r="G1045" s="5"/>
+      <c r="H1045" s="2"/>
+    </row>
+    <row r="1046" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1046" s="2"/>
+      <c r="C1046" s="6"/>
+      <c r="D1046" s="2"/>
+      <c r="E1046" s="4"/>
+      <c r="F1046" s="4"/>
+      <c r="G1046" s="5"/>
+      <c r="H1046" s="2"/>
+    </row>
+    <row r="1047" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1047" s="2"/>
+      <c r="C1047" s="6"/>
+      <c r="D1047" s="2"/>
+      <c r="E1047" s="4"/>
+      <c r="F1047" s="4"/>
+      <c r="G1047" s="5"/>
+      <c r="H1047" s="2"/>
+    </row>
+    <row r="1048" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1048" s="2"/>
+      <c r="C1048" s="6"/>
+      <c r="D1048" s="2"/>
+      <c r="E1048" s="4"/>
+      <c r="F1048" s="4"/>
+      <c r="G1048" s="5"/>
+      <c r="H1048" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B90:F90"/>
     <mergeCell ref="B2:C4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G86:H86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10360,20 +10696,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="88391b5b-f462-42ea-b263-93606fc7ae54" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="88391b5b-f462-42ea-b263-93606fc7ae54" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10618,26 +10954,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9B6D00-FB13-41CF-B7DC-A39EF295692C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AE8337-81BF-488F-B818-4F589287F63B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="dd8dbdd2-06e0-4783-b234-c80698c724ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="88391b5b-f462-42ea-b263-93606fc7ae54"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9B6D00-FB13-41CF-B7DC-A39EF295692C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
